--- a/documents/work/2025_Internships.xlsx
+++ b/documents/work/2025_Internships.xlsx
@@ -438,12 +438,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,23 +465,20 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1004,240 +1007,240 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="14" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1250,13 +1253,12 @@
       <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E14"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B15" t="s">
@@ -1272,8 +1274,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="9" t="s">
+    <row r="16" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
@@ -1288,7 +1290,7 @@
       <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1305,11 +1307,11 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="18" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1325,12 +1327,12 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -1343,7 +1345,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="20" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1356,12 +1358,11 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="21" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1374,8 +1375,6 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21"/>
-      <c r="F21"/>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" t="s">
@@ -1387,11 +1386,8 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="18" customHeight="1">
+    </row>
+    <row r="23" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1401,11 +1397,8 @@
       <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="18" customHeight="1">
+    </row>
+    <row r="24" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1421,11 +1414,11 @@
       <c r="E24" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="25" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1438,8 +1431,7 @@
       <c r="D25" t="s">
         <v>85</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1456,27 +1448,27 @@
       <c r="D26" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="4" t="s">
+    <row r="27" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1556,10 +1548,10 @@
       <c r="D2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>45611</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1573,7 +1565,7 @@
       <c r="C3">
         <v>2025</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1581,27 +1573,27 @@
       <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
+    <row r="5" s="8" customFormat="1" ht="14.25">
+      <c r="A5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>45596</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1618,10 +1610,10 @@
       <c r="D6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>45627</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1638,7 +1630,7 @@
       <c r="E7" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>123</v>
       </c>
     </row>
